--- a/automator-projects/unitWords/data/Searched Database.xlsx
+++ b/automator-projects/unitWords/data/Searched Database.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,188 +424,1316 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>honest.jpg</t>
+          <t>summer.png</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>understanding.jpg</t>
+          <t>abandon.PNG</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>loyal.jpg</t>
+          <t>abroad.PNG</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>honest</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>understanding</t>
+          <t>abandon</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>loyal</t>
+          <t>abroad</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>honest.wav</t>
+          <t>summer.wav</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>understanding.wav</t>
+          <t>abandon.wav</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>loyal.wav</t>
+          <t>abroad.wav</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>caring.jpg</t>
+          <t>accommodation.PNG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>accept.png</t>
+          <t>advertisement.PNG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>refuse.PNG</t>
+          <t>all-inclusive.PNG</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>caring</t>
+          <t>accommodation</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>accept</t>
+          <t>advertisement</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>refuse</t>
+          <t>all-inclusive</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>caring.wav</t>
+          <t>accommodation.wav</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>accept.wav</t>
+          <t>advertisement.wav</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>refuse.wav</t>
+          <t>all-inclusive.wav</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>snowy.PNG</t>
+          <t>amphitheater.jpg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>guest.jpg</t>
+          <t>ancient.PNG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>host.jpg</t>
+          <t>architecture.PNG</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>amphitheater</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>guest</t>
+          <t>ancient</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>host</t>
+          <t>architecture</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>snowy.wav</t>
+          <t>amphitheater.wav</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>guest.wav</t>
+          <t>ancient.wav</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>host.wav</t>
+          <t>architecture.wav</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>invitation.png</t>
+          <t>attractive.PNG</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>invite.png</t>
+          <t>autumn.jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>filler.jpg</t>
+          <t>winter.png</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>invitation</t>
+          <t>attractive</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>invite</t>
+          <t>autumn</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>filler</t>
+          <t>winter</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>invitation.wav</t>
+          <t>attractive.wav</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>invite.wav</t>
+          <t>autumn.wav</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>filler.wav</t>
+          <t>winter.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beach.jpg</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>brochure.PNG</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>build.PNG</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>beach</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>brochure</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>build</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>beach.wav</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>brochure.wav</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>build.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>capacity.PNG</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>capital.PNG</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>century.PNG</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>capacity</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>capital</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>century</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>capacity.wav</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>capital.wav</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>century.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>citizen.PNG</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>city.PNG</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>climate.PNG</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>citizen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>climate</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>citizen.wav</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>city.wav</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>climate.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>conquer.PNG</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>construction.PNG</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>contain.PNG</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>conquer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>construction</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>contain</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>conquer.wav</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>construction.wav</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>contain.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>country.PNG</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cruise.PNG</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>culture.PNG</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>cruise</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>culture</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>country.wav</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>cruise.wav</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>culture.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>destination.PNG</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>discover.png</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>west.jpg</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>destination</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>discover</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>west</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>destination.wav</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>discover.wav</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>west.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>diversity.PNG</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>east.jpg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>emperor.PNG</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>diversity</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>east</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>emperor</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>diversity.wav</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>east.wav</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>emperor.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>empire.PNG</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>equality.PNG</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>example.jpg</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>empire</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>equality</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>example</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>empire.wav</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>equality.wav</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>example.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>guesthouse.PNG</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>guide.PNG</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>handcraft.PNG</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>guesthouse</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>guide</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>handcraft</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>guesthouse.wav</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>guide.wav</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>handcraft.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>heritage.PNG</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>historic site.jpg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>important.jpg</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>heritage</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>historic site</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>important</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>heritage.wav</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>historic site.wav</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>important.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>in my opinion.PNG</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>incredible.jpg</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>invasion.PNG</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>in my opinion</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>incredible</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>invasion</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>in my opinion.wav</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>incredible.wav</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>invasion.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>joke.jpg</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>justice.PNG</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>land.PNG</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>joke</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>justice</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>land</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>joke.wav</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>justice.wav</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>land.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>weigh.PNG</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>magnificent.png</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>mercifulness.PNG</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>weigh</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>magnificent</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>mercifulness</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>weigh.wav</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>magnificent.wav</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>mercifulness.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>mosque.PNG</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>natural.jpg</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>north.jpg</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>mosque</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>natural</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>north</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>mosque.wav</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>natural.wav</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>north.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>palace.jpg</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>plane.PNG</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>population.PNG</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>palace</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>plane</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>palace.wav</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>plane.wav</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>population.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>port.jpg</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>reception.PNG</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>religious.PNG</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>reception</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>religious</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>port.wav</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>reception.wav</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>religious.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>remarkable.PNG</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>resort.PNG</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>rural.PNG</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>remarkable</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>resort</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>rural</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>remarkable.wav</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>resort.wav</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>rural.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>seaside.PNG</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>season.PNG</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>sightseeing.PNG</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>seaside</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>season</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>sightseeing</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>seaside.wav</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>season.wav</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>sightseeing.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>south.jpg</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>souvenir.PNG</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>special.PNG</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>south</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>souvenir</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>south.wav</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>souvenir.wav</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>special.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>spectator.PNG</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>spend.PNG</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>spring.PNG</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>spectator</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>spend</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>spectator.wav</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>spend.wav</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>spring.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>square.PNG</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>stay.PNG</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>temple.PNG</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>stay</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>temple</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>square.wav</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>stay.wav</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>temple.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>tourist attraction.PNG</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>trade route.PNG</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>trip.PNG</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>tourist attraction</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>trade route</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>trip</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>tourist attraction.wav</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>trade route.wav</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>trip.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>urban.PNG</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>vacation.PNG</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>various.PNG</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>urban</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>vacation</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>various</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>urban.wav</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>vacation.wav</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>various.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>village.jpg</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>visitor.PNG</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>weather.png</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>village</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>visitor</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>weather</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>village.wav</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>visitor.wav</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>weather.wav</t>
         </is>
       </c>
     </row>
